--- a/work-in-progress/Peppol Code Lists - Document types v7.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F1534-85FD-4341-A168-15C5CBBAB7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5E5DC-875F-4201-B26C-82F036FC1647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="281">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -871,6 +871,24 @@
   </si>
   <si>
     <t>TICC-156</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.0 (invalid)</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.0::D16B</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>TICC-159</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.0 Extension (invalid)</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.0#conformant#urn:xoev-de:kosit:extension:xrechnung_2.0::D16B</t>
   </si>
 </sst>
 </file>
@@ -1413,29 +1431,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="103.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="3"/>
-    <col min="11" max="11" width="70.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="3"/>
+    <col min="5" max="5" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="70.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1470,7 +1488,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1590,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>125</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>128</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +1831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>126</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>110</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -2452,7 +2470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
@@ -2728,7 +2746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -2790,7 +2808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>130</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
@@ -2911,7 +2929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -2939,7 +2957,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -3088,7 +3106,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -3119,7 +3137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>87</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>88</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
@@ -3243,7 +3261,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -3336,7 +3354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -3364,7 +3382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>97</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>98</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>133</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>145</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
@@ -3776,7 +3794,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>190</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>193</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>195</v>
       </c>
@@ -3902,7 +3920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>196</v>
       </c>
@@ -3935,7 +3953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>197</v>
       </c>
@@ -3968,7 +3986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>201</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>202</v>
       </c>
@@ -4030,9 +4048,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>60</v>
@@ -4044,8 +4062,10 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>243</v>
@@ -4061,27 +4081,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="8">
-        <v>7</v>
+        <v>276</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="E83" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>236</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H83" s="3" t="b">
         <f>FALSE</f>
@@ -4094,15 +4112,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84" s="8">
         <v>7</v>
@@ -4127,15 +4145,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D85" s="8">
         <v>7</v>
@@ -4160,25 +4178,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86" s="8">
         <v>7</v>
       </c>
       <c r="E86" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H86" s="3" t="b">
         <f>FALSE</f>
@@ -4191,27 +4211,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D87" s="8">
         <v>7</v>
       </c>
       <c r="E87" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>261</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H87" s="3" t="b">
         <f>FALSE</f>
@@ -4220,19 +4238,19 @@
       <c r="J87" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K87" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" s="8">
         <v>7</v>
@@ -4257,15 +4275,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D89" s="8">
         <v>7</v>
@@ -4290,15 +4308,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="8">
         <v>7</v>
@@ -4323,25 +4341,27 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D91" s="8">
         <v>7</v>
       </c>
       <c r="E91" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H91" s="3" t="b">
         <f>FALSE</f>
@@ -4351,18 +4371,18 @@
         <v>142</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D92" s="8">
         <v>7</v>
@@ -4385,15 +4405,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D93" s="8">
         <v>7</v>
@@ -4416,46 +4436,46 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="8">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H94" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E94" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H94" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>236</v>
@@ -4478,15 +4498,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>236</v>
@@ -4509,167 +4529,172 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E97" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="G97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H97" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H98" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E99" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H97" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="H99" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D100" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E98" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="E100" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H98" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="H100" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="13" t="s">
+      <c r="B101" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D101" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E99" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="E101" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H99" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K99" s="15" t="s">
+      <c r="H101" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B102" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E100" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H100" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E101" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H101" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>261</v>
@@ -4679,28 +4704,25 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H102" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="K102" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>261</v>
@@ -4723,15 +4745,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>261</v>
@@ -4751,6 +4773,68 @@
         <v>142</v>
       </c>
       <c r="K104" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E105" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H105" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H106" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>218</v>
       </c>
     </row>
